--- a/data/0. old data/0. raw/2016/companies/almirall.xlsx
+++ b/data/0. old data/0. raw/2016/companies/almirall.xlsx
@@ -164,16 +164,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>UniversitätsSpit al Zürich -European Dermatology Forum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Petersgraben 4</t>
     </r>
   </si>
@@ -1013,6 +1003,16 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>European Dermatology Forum</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1466,10 +1466,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1491,57 +1491,57 @@
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1">
       <c r="A1" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="12"/>
@@ -1556,21 +1556,21 @@
         <v>495.66</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12"/>
@@ -1585,21 +1585,21 @@
         <v>262.7</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="12"/>
@@ -1614,21 +1614,21 @@
         <v>495.66</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12"/>
@@ -1643,21 +1643,21 @@
         <v>495.66</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12"/>
@@ -1672,21 +1672,21 @@
         <v>1000</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12"/>
@@ -1701,21 +1701,21 @@
         <v>495.66</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12"/>
@@ -1730,21 +1730,21 @@
         <v>495.66</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="12"/>
@@ -1759,12 +1759,12 @@
         <v>495.66</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>18</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="12"/>
@@ -1790,21 +1790,21 @@
         <v>1549.5</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
@@ -1819,21 +1819,21 @@
         <v>495.66</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="12"/>
@@ -1848,21 +1848,21 @@
         <v>495.66</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="12"/>
@@ -1877,21 +1877,21 @@
         <v>495.66</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="12"/>
@@ -1906,12 +1906,12 @@
         <v>495.66</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>18</v>
@@ -1920,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="12"/>
@@ -1935,21 +1935,21 @@
         <v>495.66</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="12"/>
@@ -1964,21 +1964,21 @@
         <v>800</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="12"/>
@@ -1993,12 +1993,12 @@
         <v>495.66</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>3</v>
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="12"/>
@@ -2022,12 +2022,12 @@
         <v>1000</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>18</v>
@@ -2051,21 +2051,21 @@
         <v>600.79999999999995</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="12"/>
@@ -2080,12 +2080,12 @@
         <v>495.66</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>18</v>
@@ -2109,21 +2109,21 @@
         <v>495.66</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="12"/>
@@ -2138,21 +2138,21 @@
         <v>300</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="12"/>
@@ -2167,21 +2167,21 @@
         <v>1000</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="12"/>
@@ -2196,12 +2196,12 @@
         <v>1000</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>18</v>
@@ -2225,12 +2225,12 @@
         <v>495.66</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="12"/>
@@ -2254,12 +2254,12 @@
         <v>495.66</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>18</v>
@@ -2283,21 +2283,21 @@
         <v>495.66</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="12"/>
@@ -2312,12 +2312,12 @@
         <v>495.66</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>9</v>
@@ -2326,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="12"/>
@@ -2341,21 +2341,21 @@
         <v>1400</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="18" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="21"/>
@@ -2370,21 +2370,21 @@
         <v>495.66</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="18" customFormat="1">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="21"/>
@@ -2399,21 +2399,21 @@
         <v>495.66</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="18" customFormat="1">
       <c r="A32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="21"/>
@@ -2428,21 +2428,21 @@
         <v>2000</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="18" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="21"/>
@@ -2457,15 +2457,15 @@
         <v>500</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>2</v>
@@ -2487,18 +2487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1">
+    <row r="35" spans="1:13">
       <c r="A35" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="12"/>
@@ -2516,18 +2516,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
+    <row r="36" spans="1:13">
       <c r="A36" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="12"/>
@@ -2545,18 +2545,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
+    <row r="37" spans="1:13">
       <c r="A37" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="12"/>
@@ -2574,18 +2574,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
+    <row r="38" spans="1:13">
       <c r="A38" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="12"/>
@@ -2603,18 +2603,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
+    <row r="39" spans="1:13">
       <c r="A39" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="12"/>
@@ -2632,18 +2632,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="26">
+    <row r="40" spans="1:13" ht="26">
       <c r="A40" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="12"/>
@@ -2661,9 +2661,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
+    <row r="41" spans="1:13">
       <c r="A41" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>9</v>
@@ -2672,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
@@ -2690,18 +2690,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
+    <row r="42" spans="1:13">
       <c r="A42" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
@@ -2719,18 +2719,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
+    <row r="43" spans="1:13">
       <c r="A43" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="12"/>
@@ -2748,18 +2748,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="26">
+    <row r="44" spans="1:13" ht="26">
       <c r="A44" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="12"/>
@@ -2777,18 +2777,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1">
+    <row r="45" spans="1:13">
       <c r="A45" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="12"/>
@@ -2806,18 +2806,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="26">
+    <row r="46" spans="1:13" ht="26">
       <c r="A46" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="12"/>
@@ -2835,18 +2835,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="26">
+    <row r="47" spans="1:13" ht="26">
       <c r="A47" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="12"/>
@@ -2864,9 +2864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="26">
+    <row r="48" spans="1:13">
       <c r="A48" s="16" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>18</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1">
+    <row r="49" spans="1:13">
       <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1">
+    <row r="50" spans="1:13">
       <c r="A50" s="15" t="s">
         <v>13</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1">
+    <row r="51" spans="1:13">
       <c r="A51" s="16" t="s">
         <v>10</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1">
+    <row r="52" spans="1:13">
       <c r="A52" s="11" t="s">
         <v>7</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1">
+    <row r="53" spans="1:13">
       <c r="A53" s="11" t="s">
         <v>4</v>
       </c>
@@ -3038,12 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
+    <row r="54" spans="1:13">
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
